--- a/cours4_modelisation/donnees/cas-enchères.xlsx
+++ b/cours4_modelisation/donnees/cas-enchères.xlsx
@@ -5,28 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Google Drive\HEC Montreal\Certificat Analytique\H2020_Analytique\cours4_modelisation\Fichiers du thème 3.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Google Drive\HEC Montreal\Certificat Analytique\H2020_IntroAnalytique\MATH30650\cours4_modelisation\donnees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB40FD-BCBC-4232-B44F-0CD7743FB3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCA3679-21A1-46EE-8F97-266B8F142A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="données + numéro d'équipe" sheetId="2" r:id="rId1"/>
-    <sheet name="a) à d)" sheetId="16" r:id="rId2"/>
-    <sheet name="Fonction NB.SI" sheetId="18" r:id="rId3"/>
-    <sheet name="e) et f)" sheetId="19" r:id="rId4"/>
-    <sheet name="g)" sheetId="20" r:id="rId5"/>
-    <sheet name="h)" sheetId="21" r:id="rId6"/>
-    <sheet name="Feuil2" sheetId="17" state="hidden" r:id="rId7"/>
-    <sheet name="Question 1" sheetId="3" state="hidden" r:id="rId8"/>
-    <sheet name="Question 2" sheetId="5" state="hidden" r:id="rId9"/>
-    <sheet name="Fonction de revenu avec 4 pts" sheetId="14" state="hidden" r:id="rId10"/>
-    <sheet name="Question 3" sheetId="10" state="hidden" r:id="rId11"/>
-    <sheet name="Question 4" sheetId="11" state="hidden" r:id="rId12"/>
-    <sheet name="Question 5" sheetId="12" state="hidden" r:id="rId13"/>
-    <sheet name="Supplément" sheetId="13" state="hidden" r:id="rId14"/>
+    <sheet name="data" sheetId="22" r:id="rId1"/>
+    <sheet name="données + numéro d'équipe" sheetId="2" r:id="rId2"/>
+    <sheet name="a) à d)" sheetId="16" r:id="rId3"/>
+    <sheet name="Fonction NB.SI" sheetId="18" r:id="rId4"/>
+    <sheet name="e) et f)" sheetId="19" r:id="rId5"/>
+    <sheet name="g)" sheetId="20" r:id="rId6"/>
+    <sheet name="h)" sheetId="21" r:id="rId7"/>
+    <sheet name="Feuil2" sheetId="17" state="hidden" r:id="rId8"/>
+    <sheet name="Question 1" sheetId="3" state="hidden" r:id="rId9"/>
+    <sheet name="Question 2" sheetId="5" state="hidden" r:id="rId10"/>
+    <sheet name="Fonction de revenu avec 4 pts" sheetId="14" state="hidden" r:id="rId11"/>
+    <sheet name="Question 3" sheetId="10" state="hidden" r:id="rId12"/>
+    <sheet name="Question 4" sheetId="11" state="hidden" r:id="rId13"/>
+    <sheet name="Question 5" sheetId="12" state="hidden" r:id="rId14"/>
+    <sheet name="Supplément" sheetId="13" state="hidden" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="prix">OFFSET(Feuil2!$C$9,0,'données + numéro d''équipe'!$G$5,OFFSET(Feuil2!$C$6,0,'données + numéro d''équipe'!$G$5,1,1),1)</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
   <si>
     <t>Prix</t>
   </si>
@@ -743,6 +744,9 @@
   </si>
   <si>
     <t>Résultats de la partie e)</t>
+  </si>
+  <si>
+    <t>reponses</t>
   </si>
 </sst>
 </file>
@@ -19416,2380 +19420,997 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617BED5-EED0-407D-851B-56D02A3C147E}">
+  <dimension ref="A1:A155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A2)</f>
+        <v>125</v>
+      </c>
+      <c r="C2" s="2">
+        <f>A2*B2</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="B3" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A3)</f>
+        <v>84</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C5" si="0">A3*B3</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A4)</f>
+        <v>80</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="B5" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A5)</f>
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A6)</f>
+        <v>48</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C14" si="1">A6*B6</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="B7" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A7)</f>
+        <v>39</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>682.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A8)</f>
+        <v>39</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="B9" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A9)</f>
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>562.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A10)</f>
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="B11" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A11)</f>
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A12)</f>
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="B13" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A13)</f>
         <v>17</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="58">
-        <v>0</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="58">
-        <v>0.01</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="85">
-        <v>11254658</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="G5" s="101">
-        <f>MOD(E4,5)+1</f>
-        <v>4</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="58">
-        <v>0.25</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="58">
-        <v>0.25</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="58">
-        <v>1</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="58">
-        <v>1</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-    </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="58">
-        <v>1</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="58">
-        <v>1</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="58">
-        <v>1</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-    </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="58">
-        <v>1</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-    </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="58">
-        <v>2</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-    </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="58">
-        <v>2</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-    </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="58">
-        <v>2</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="58">
-        <v>2</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="58">
-        <v>2</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-    </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="58">
-        <v>2</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="58">
-        <v>2</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-    </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="58">
-        <v>2</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="58">
-        <v>2</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-    </row>
-    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="58">
-        <v>2.78</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="58">
-        <v>3</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-    </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="58">
-        <v>3</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-    </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="58">
-        <v>3.25</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="58">
-        <v>4</v>
-      </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="58">
-        <v>4</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-    </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="58">
-        <v>4</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-    </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="56">
-        <v>5</v>
-      </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-    </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="58">
-        <v>5</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-    </row>
-    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="58">
-        <v>5</v>
-      </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-    </row>
-    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="58">
-        <v>5</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-    </row>
-    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="58">
-        <v>5</v>
-      </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-    </row>
-    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="58">
-        <v>5</v>
-      </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-    </row>
-    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="58">
-        <v>5</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-    </row>
-    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="58">
-        <v>5</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-    </row>
-    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="58">
-        <v>5</v>
-      </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-    </row>
-    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="58">
-        <v>5</v>
-      </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-    </row>
-    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="58">
-        <v>5</v>
-      </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-    </row>
-    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="58">
-        <v>5</v>
-      </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-    </row>
-    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="58">
-        <v>5</v>
-      </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-    </row>
-    <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="58">
-        <v>5</v>
-      </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-    </row>
-    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="58">
-        <v>5</v>
-      </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-    </row>
-    <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="58">
-        <v>5</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-    </row>
-    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="58">
-        <v>5</v>
-      </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-    </row>
-    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="58">
-        <v>5</v>
-      </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-    </row>
-    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="58">
-        <v>5</v>
-      </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-    </row>
-    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="58">
-        <v>5</v>
-      </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-    </row>
-    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="58">
-        <v>5</v>
-      </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-    </row>
-    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="58">
-        <v>5</v>
-      </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-    </row>
-    <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="58">
-        <v>5</v>
-      </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-    </row>
-    <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="58">
-        <v>5</v>
-      </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-    </row>
-    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="58">
-        <v>5</v>
-      </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-    </row>
-    <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="58">
-        <v>5</v>
-      </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-    </row>
-    <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="58">
-        <v>5</v>
-      </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-    </row>
-    <row r="58" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="58">
-        <v>5</v>
-      </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-    </row>
-    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="58">
-        <v>5</v>
-      </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-    </row>
-    <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="58">
-        <v>5</v>
-      </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-    </row>
-    <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="58">
-        <v>5</v>
-      </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-    </row>
-    <row r="62" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="58">
-        <v>5</v>
-      </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-    </row>
-    <row r="63" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="58">
-        <v>5</v>
-      </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-    </row>
-    <row r="64" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="58">
-        <v>5</v>
-      </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-    </row>
-    <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="58">
-        <v>5</v>
-      </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-    </row>
-    <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="58">
-        <v>5.01</v>
-      </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-    </row>
-    <row r="67" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="58">
-        <v>6</v>
-      </c>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-    </row>
-    <row r="68" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="58">
-        <v>6</v>
-      </c>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-    </row>
-    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="58">
-        <v>7</v>
-      </c>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-    </row>
-    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A70" s="58">
-        <v>7</v>
-      </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-    </row>
-    <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A71" s="58">
-        <v>7</v>
-      </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-    </row>
-    <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A72" s="58">
-        <v>7.75</v>
-      </c>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-    </row>
-    <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="58">
-        <v>8</v>
-      </c>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-    </row>
-    <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A74" s="58">
-        <v>8</v>
-      </c>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-    </row>
-    <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="58">
-        <v>9</v>
-      </c>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-    </row>
-    <row r="76" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A76" s="58">
-        <v>10</v>
-      </c>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-    </row>
-    <row r="77" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A77" s="58">
-        <v>10</v>
-      </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-    </row>
-    <row r="78" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A78" s="58">
-        <v>10</v>
-      </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-    </row>
-    <row r="79" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A79" s="58">
-        <v>10</v>
-      </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-    </row>
-    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A80" s="58">
-        <v>10</v>
-      </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-    </row>
-    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A81" s="58">
-        <v>10</v>
-      </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-    </row>
-    <row r="82" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="58">
-        <v>10</v>
-      </c>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-    </row>
-    <row r="83" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A83" s="58">
-        <v>10</v>
-      </c>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-    </row>
-    <row r="84" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A84" s="58">
-        <v>10</v>
-      </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-    </row>
-    <row r="85" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A85" s="58">
-        <v>10</v>
-      </c>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-    </row>
-    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A86" s="58">
-        <v>10</v>
-      </c>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-    </row>
-    <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A87" s="58">
-        <v>10</v>
-      </c>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-    </row>
-    <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A88" s="58">
-        <v>10</v>
-      </c>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-    </row>
-    <row r="89" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A89" s="58">
-        <v>10</v>
-      </c>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-    </row>
-    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A90" s="58">
-        <v>10</v>
-      </c>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-    </row>
-    <row r="91" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A91" s="58">
-        <v>10</v>
-      </c>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-    </row>
-    <row r="92" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A92" s="58">
-        <v>10</v>
-      </c>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-    </row>
-    <row r="93" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A93" s="58">
-        <v>10</v>
-      </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-    </row>
-    <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A94" s="58">
-        <v>10</v>
-      </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-    </row>
-    <row r="95" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A95" s="58">
-        <v>10</v>
-      </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="34"/>
-    </row>
-    <row r="96" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A96" s="58">
-        <v>10</v>
-      </c>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="34"/>
-    </row>
-    <row r="97" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A97" s="58">
-        <v>10</v>
-      </c>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="34"/>
-    </row>
-    <row r="98" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="58">
-        <v>10</v>
-      </c>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
-    </row>
-    <row r="99" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A99" s="58">
-        <v>10</v>
-      </c>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="34"/>
-    </row>
-    <row r="100" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="58">
-        <v>10</v>
-      </c>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="34"/>
-    </row>
-    <row r="101" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A101" s="58">
-        <v>10</v>
-      </c>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="34"/>
-    </row>
-    <row r="102" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A102" s="58">
-        <v>10</v>
-      </c>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="34"/>
-    </row>
-    <row r="103" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A103" s="58">
-        <v>10</v>
-      </c>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="34"/>
-    </row>
-    <row r="104" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A104" s="58">
-        <v>10</v>
-      </c>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="34"/>
-      <c r="K104" s="34"/>
-    </row>
-    <row r="105" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A105" s="58">
-        <v>11</v>
-      </c>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="34"/>
-    </row>
-    <row r="106" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A106" s="58">
-        <v>12.5</v>
-      </c>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="34"/>
-    </row>
-    <row r="107" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A107" s="58">
-        <v>13.5</v>
-      </c>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="34"/>
-    </row>
-    <row r="108" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A108" s="58">
-        <v>15</v>
-      </c>
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="34"/>
-    </row>
-    <row r="109" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A109" s="58">
-        <v>15</v>
-      </c>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="34"/>
-      <c r="K109" s="34"/>
-    </row>
-    <row r="110" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A110" s="58">
-        <v>15</v>
-      </c>
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="34"/>
-    </row>
-    <row r="111" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A111" s="58">
-        <v>15</v>
-      </c>
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="34"/>
-      <c r="K111" s="34"/>
-    </row>
-    <row r="112" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A112" s="58">
-        <v>15</v>
-      </c>
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="34"/>
-      <c r="J112" s="34"/>
-      <c r="K112" s="34"/>
-    </row>
-    <row r="113" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A113" s="58">
-        <v>15</v>
-      </c>
-      <c r="B113" s="34"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="34"/>
-      <c r="K113" s="34"/>
-    </row>
-    <row r="114" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A114" s="58">
-        <v>15</v>
-      </c>
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="34"/>
-    </row>
-    <row r="115" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A115" s="58">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34"/>
-      <c r="J115" s="34"/>
-      <c r="K115" s="34"/>
-    </row>
-    <row r="116" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A116" s="58">
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>552.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1">
+        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A14)</f>
         <v>17</v>
       </c>
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
-      <c r="J116" s="34"/>
-      <c r="K116" s="34"/>
-    </row>
-    <row r="117" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A117" s="58">
-        <v>20</v>
-      </c>
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="34"/>
-    </row>
-    <row r="118" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A118" s="58">
-        <v>20</v>
-      </c>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="34"/>
-      <c r="K118" s="34"/>
-    </row>
-    <row r="119" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A119" s="56">
-        <v>20</v>
-      </c>
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="34"/>
-    </row>
-    <row r="120" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A120" s="58">
-        <v>20</v>
-      </c>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
-      <c r="J120" s="34"/>
-      <c r="K120" s="34"/>
-    </row>
-    <row r="121" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A121" s="58">
-        <v>20</v>
-      </c>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34"/>
-      <c r="H121" s="34"/>
-      <c r="I121" s="34"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="34"/>
-    </row>
-    <row r="122" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A122" s="58">
-        <v>20</v>
-      </c>
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="34"/>
-      <c r="K122" s="34"/>
-    </row>
-    <row r="123" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A123" s="58">
-        <v>20</v>
-      </c>
-      <c r="B123" s="34"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="34"/>
-      <c r="J123" s="34"/>
-      <c r="K123" s="34"/>
-    </row>
-    <row r="124" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A124" s="58">
-        <v>20</v>
-      </c>
-      <c r="B124" s="34"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="34"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="34"/>
-    </row>
-    <row r="125" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A125" s="58">
-        <v>20</v>
-      </c>
-      <c r="B125" s="34"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="34"/>
-      <c r="H125" s="34"/>
-      <c r="I125" s="34"/>
-      <c r="J125" s="34"/>
-      <c r="K125" s="34"/>
-    </row>
-    <row r="126" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A126" s="58">
-        <v>20</v>
-      </c>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="34"/>
-      <c r="K126" s="34"/>
-    </row>
-    <row r="127" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A127" s="58">
-        <v>20</v>
-      </c>
-      <c r="B127" s="34"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
-      <c r="F127" s="34"/>
-      <c r="G127" s="34"/>
-      <c r="H127" s="34"/>
-      <c r="I127" s="34"/>
-      <c r="J127" s="34"/>
-      <c r="K127" s="34"/>
-    </row>
-    <row r="128" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A128" s="58">
-        <v>20</v>
-      </c>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="34"/>
-      <c r="I128" s="34"/>
-      <c r="J128" s="34"/>
-      <c r="K128" s="34"/>
-    </row>
-    <row r="129" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A129" s="56">
-        <v>20.010000000000002</v>
-      </c>
-      <c r="B129" s="34"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="34"/>
-      <c r="K129" s="34"/>
-    </row>
-    <row r="130" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A130" s="58">
-        <v>20.010000000000002</v>
-      </c>
-      <c r="B130" s="34"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="34"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="34"/>
-      <c r="I130" s="34"/>
-      <c r="J130" s="34"/>
-      <c r="K130" s="34"/>
-    </row>
-    <row r="131" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A131" s="58">
-        <v>22.5</v>
-      </c>
-      <c r="B131" s="34"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="34"/>
-      <c r="F131" s="34"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="34"/>
-      <c r="I131" s="34"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="34"/>
-    </row>
-    <row r="132" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A132" s="58">
-        <v>23</v>
-      </c>
-      <c r="B132" s="34"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="34"/>
-      <c r="I132" s="34"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="34"/>
-    </row>
-    <row r="133" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A133" s="58">
-        <v>23</v>
-      </c>
-      <c r="B133" s="34"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
-      <c r="F133" s="34"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="34"/>
-      <c r="I133" s="34"/>
-      <c r="J133" s="34"/>
-      <c r="K133" s="34"/>
-    </row>
-    <row r="134" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A134" s="58">
-        <v>25</v>
-      </c>
-      <c r="B134" s="34"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
-      <c r="F134" s="34"/>
-      <c r="G134" s="34"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="34"/>
-    </row>
-    <row r="135" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A135" s="58">
-        <v>25</v>
-      </c>
-      <c r="B135" s="34"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="34"/>
-      <c r="F135" s="34"/>
-      <c r="G135" s="34"/>
-      <c r="H135" s="34"/>
-      <c r="I135" s="34"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="34"/>
-    </row>
-    <row r="136" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A136" s="58">
-        <v>25</v>
-      </c>
-      <c r="B136" s="34"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="34"/>
-      <c r="H136" s="34"/>
-      <c r="I136" s="34"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="34"/>
-    </row>
-    <row r="137" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A137" s="58">
-        <v>25</v>
-      </c>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="34"/>
-    </row>
-    <row r="138" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A138" s="58">
-        <v>30</v>
-      </c>
-      <c r="B138" s="34"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="34"/>
-      <c r="F138" s="34"/>
-      <c r="G138" s="34"/>
-      <c r="H138" s="34"/>
-      <c r="I138" s="34"/>
-      <c r="J138" s="34"/>
-      <c r="K138" s="34"/>
-    </row>
-    <row r="139" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A139" s="58">
-        <v>40</v>
-      </c>
-      <c r="B139" s="34"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="34"/>
-      <c r="F139" s="34"/>
-      <c r="G139" s="34"/>
-      <c r="H139" s="34"/>
-      <c r="I139" s="34"/>
-      <c r="J139" s="34"/>
-      <c r="K139" s="34"/>
-    </row>
-    <row r="140" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A140" s="58">
-        <v>40</v>
-      </c>
-      <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="34"/>
-      <c r="G140" s="34"/>
-      <c r="H140" s="34"/>
-      <c r="I140" s="34"/>
-      <c r="J140" s="34"/>
-      <c r="K140" s="34"/>
-    </row>
-    <row r="141" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A141" s="58">
-        <v>40</v>
-      </c>
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="34"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="34"/>
-      <c r="I141" s="34"/>
-      <c r="J141" s="34"/>
-      <c r="K141" s="34"/>
-    </row>
-    <row r="142" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A142" s="58">
-        <v>40</v>
-      </c>
-      <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="34"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="34"/>
-      <c r="I142" s="34"/>
-      <c r="J142" s="34"/>
-      <c r="K142" s="34"/>
-    </row>
-    <row r="143" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A143" s="58">
-        <v>40</v>
-      </c>
-      <c r="B143" s="34"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
-      <c r="E143" s="34"/>
-      <c r="F143" s="34"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="34"/>
-      <c r="I143" s="34"/>
-      <c r="J143" s="34"/>
-      <c r="K143" s="34"/>
-    </row>
-    <row r="144" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A144" s="58">
-        <v>40</v>
-      </c>
-      <c r="B144" s="34"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34"/>
-      <c r="E144" s="34"/>
-      <c r="F144" s="34"/>
-      <c r="G144" s="34"/>
-      <c r="H144" s="34"/>
-      <c r="I144" s="34"/>
-      <c r="J144" s="34"/>
-      <c r="K144" s="34"/>
-    </row>
-    <row r="145" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A145" s="58">
-        <v>50</v>
-      </c>
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="34"/>
-      <c r="F145" s="34"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="34"/>
-      <c r="I145" s="34"/>
-      <c r="J145" s="34"/>
-      <c r="K145" s="34"/>
-    </row>
-    <row r="146" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A146" s="58">
-        <v>50</v>
-      </c>
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="34"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="34"/>
-      <c r="I146" s="34"/>
-      <c r="J146" s="34"/>
-      <c r="K146" s="34"/>
-    </row>
-    <row r="147" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A147" s="58">
-        <v>50</v>
-      </c>
-      <c r="B147" s="34"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="34"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="34"/>
-      <c r="I147" s="34"/>
-      <c r="J147" s="34"/>
-      <c r="K147" s="34"/>
-    </row>
-    <row r="148" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A148" s="58">
-        <v>50</v>
-      </c>
-      <c r="B148" s="34"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="34"/>
-      <c r="F148" s="34"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="34"/>
-      <c r="I148" s="34"/>
-      <c r="J148" s="34"/>
-      <c r="K148" s="34"/>
-    </row>
-    <row r="149" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A149" s="58">
-        <v>50</v>
-      </c>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="34"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="34"/>
-      <c r="I149" s="34"/>
-      <c r="J149" s="34"/>
-      <c r="K149" s="34"/>
-    </row>
-    <row r="150" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A150" s="58">
-        <v>50</v>
-      </c>
-      <c r="B150" s="34"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="34"/>
-      <c r="I150" s="34"/>
-      <c r="J150" s="34"/>
-      <c r="K150" s="34"/>
-    </row>
-    <row r="151" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A151" s="58">
-        <v>51</v>
-      </c>
-      <c r="B151" s="34"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="34"/>
-      <c r="G151" s="34"/>
-      <c r="H151" s="34"/>
-      <c r="I151" s="34"/>
-      <c r="J151" s="34"/>
-      <c r="K151" s="34"/>
-    </row>
-    <row r="152" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A152" s="58">
-        <v>54</v>
-      </c>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="34"/>
-    </row>
-    <row r="153" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A153" s="58">
-        <v>100</v>
-      </c>
-      <c r="B153" s="34"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34"/>
-      <c r="H153" s="34"/>
-      <c r="I153" s="34"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="34"/>
-    </row>
-    <row r="154" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A154" s="58">
-        <v>100</v>
-      </c>
-      <c r="B154" s="34"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="34"/>
-      <c r="G154" s="34"/>
-      <c r="H154" s="34"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="34"/>
-      <c r="K154" s="34"/>
-    </row>
-    <row r="155" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A155" s="58">
-        <v>3000</v>
-      </c>
-      <c r="B155" s="34"/>
-      <c r="C155" s="34"/>
-      <c r="D155" s="34"/>
-      <c r="E155" s="34"/>
-      <c r="F155" s="34"/>
-      <c r="G155" s="34"/>
-      <c r="H155" s="34"/>
-      <c r="I155" s="34"/>
-      <c r="J155" s="34"/>
-      <c r="K155" s="34"/>
-    </row>
-    <row r="156" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C156" s="34"/>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="34"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="34"/>
-      <c r="K156" s="34"/>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>595</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A155">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="C1:K2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -21874,7 +20495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -22427,7 +21048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -22980,7 +21601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
@@ -23861,7 +22482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -24939,10 +23560,2384 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K156"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A155"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="58">
+        <v>0</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="58">
+        <v>0.01</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="85">
+        <v>11254658</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="G5" s="101">
+        <f>MOD(E4,5)+1</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="58">
+        <v>1</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="58">
+        <v>1</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="58">
+        <v>1</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="58">
+        <v>1</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="58">
+        <v>1</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="58">
+        <v>1</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="58">
+        <v>2</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="58">
+        <v>2</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="58">
+        <v>2</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="58">
+        <v>2</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="58">
+        <v>2</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="58">
+        <v>2</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="58">
+        <v>2</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="58">
+        <v>2</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="58">
+        <v>2</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="58">
+        <v>2.78</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="58">
+        <v>3</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+    </row>
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="58">
+        <v>3</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+    </row>
+    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="58">
+        <v>3.25</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="58">
+        <v>4</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="58">
+        <v>4</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+    </row>
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="58">
+        <v>4</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="56">
+        <v>5</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="58">
+        <v>5</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="58">
+        <v>5</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+    </row>
+    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="58">
+        <v>5</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+    </row>
+    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="58">
+        <v>5</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+    </row>
+    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="58">
+        <v>5</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="58">
+        <v>5</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+    </row>
+    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="58">
+        <v>5</v>
+      </c>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+    </row>
+    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="58">
+        <v>5</v>
+      </c>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+    </row>
+    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="58">
+        <v>5</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+    </row>
+    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="58">
+        <v>5</v>
+      </c>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+    </row>
+    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="58">
+        <v>5</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+    </row>
+    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="58">
+        <v>5</v>
+      </c>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+    </row>
+    <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="58">
+        <v>5</v>
+      </c>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+    </row>
+    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="58">
+        <v>5</v>
+      </c>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+    </row>
+    <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="58">
+        <v>5</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+    </row>
+    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="58">
+        <v>5</v>
+      </c>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+    </row>
+    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="58">
+        <v>5</v>
+      </c>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+    </row>
+    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="58">
+        <v>5</v>
+      </c>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+    </row>
+    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="58">
+        <v>5</v>
+      </c>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+    </row>
+    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="58">
+        <v>5</v>
+      </c>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+    </row>
+    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="58">
+        <v>5</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+    </row>
+    <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="58">
+        <v>5</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+    </row>
+    <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="58">
+        <v>5</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+    </row>
+    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="58">
+        <v>5</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+    </row>
+    <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="58">
+        <v>5</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+    </row>
+    <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="58">
+        <v>5</v>
+      </c>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+    </row>
+    <row r="58" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="58">
+        <v>5</v>
+      </c>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+    </row>
+    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="58">
+        <v>5</v>
+      </c>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+    </row>
+    <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="58">
+        <v>5</v>
+      </c>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+    </row>
+    <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="58">
+        <v>5</v>
+      </c>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+    </row>
+    <row r="62" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="58">
+        <v>5</v>
+      </c>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+    </row>
+    <row r="63" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="58">
+        <v>5</v>
+      </c>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+    </row>
+    <row r="64" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="58">
+        <v>5</v>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+    </row>
+    <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="58">
+        <v>5</v>
+      </c>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+    </row>
+    <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="58">
+        <v>5.01</v>
+      </c>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+    </row>
+    <row r="67" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="58">
+        <v>6</v>
+      </c>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+    </row>
+    <row r="68" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="58">
+        <v>6</v>
+      </c>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+    </row>
+    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="58">
+        <v>7</v>
+      </c>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+    </row>
+    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="58">
+        <v>7</v>
+      </c>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+    </row>
+    <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="58">
+        <v>7</v>
+      </c>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+    </row>
+    <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="58">
+        <v>7.75</v>
+      </c>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+    </row>
+    <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A73" s="58">
+        <v>8</v>
+      </c>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+    </row>
+    <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A74" s="58">
+        <v>8</v>
+      </c>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+    </row>
+    <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A75" s="58">
+        <v>9</v>
+      </c>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+    </row>
+    <row r="76" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="58">
+        <v>10</v>
+      </c>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+    </row>
+    <row r="77" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="58">
+        <v>10</v>
+      </c>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+    </row>
+    <row r="78" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="58">
+        <v>10</v>
+      </c>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+    </row>
+    <row r="79" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" s="58">
+        <v>10</v>
+      </c>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+    </row>
+    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A80" s="58">
+        <v>10</v>
+      </c>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+    </row>
+    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A81" s="58">
+        <v>10</v>
+      </c>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+    </row>
+    <row r="82" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="58">
+        <v>10</v>
+      </c>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+    </row>
+    <row r="83" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A83" s="58">
+        <v>10</v>
+      </c>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+    </row>
+    <row r="84" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A84" s="58">
+        <v>10</v>
+      </c>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+    </row>
+    <row r="85" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A85" s="58">
+        <v>10</v>
+      </c>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+    </row>
+    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A86" s="58">
+        <v>10</v>
+      </c>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+    </row>
+    <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A87" s="58">
+        <v>10</v>
+      </c>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+    </row>
+    <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A88" s="58">
+        <v>10</v>
+      </c>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+    </row>
+    <row r="89" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A89" s="58">
+        <v>10</v>
+      </c>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+    </row>
+    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A90" s="58">
+        <v>10</v>
+      </c>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+    </row>
+    <row r="91" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A91" s="58">
+        <v>10</v>
+      </c>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+    </row>
+    <row r="92" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A92" s="58">
+        <v>10</v>
+      </c>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+    </row>
+    <row r="93" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A93" s="58">
+        <v>10</v>
+      </c>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+    </row>
+    <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A94" s="58">
+        <v>10</v>
+      </c>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+    </row>
+    <row r="95" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A95" s="58">
+        <v>10</v>
+      </c>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+    </row>
+    <row r="96" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A96" s="58">
+        <v>10</v>
+      </c>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+    </row>
+    <row r="97" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A97" s="58">
+        <v>10</v>
+      </c>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
+    </row>
+    <row r="98" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A98" s="58">
+        <v>10</v>
+      </c>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+    </row>
+    <row r="99" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A99" s="58">
+        <v>10</v>
+      </c>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="34"/>
+    </row>
+    <row r="100" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A100" s="58">
+        <v>10</v>
+      </c>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="34"/>
+    </row>
+    <row r="101" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A101" s="58">
+        <v>10</v>
+      </c>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="34"/>
+    </row>
+    <row r="102" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A102" s="58">
+        <v>10</v>
+      </c>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="34"/>
+      <c r="K102" s="34"/>
+    </row>
+    <row r="103" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A103" s="58">
+        <v>10</v>
+      </c>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+    </row>
+    <row r="104" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A104" s="58">
+        <v>10</v>
+      </c>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="34"/>
+      <c r="K104" s="34"/>
+    </row>
+    <row r="105" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A105" s="58">
+        <v>11</v>
+      </c>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="34"/>
+      <c r="K105" s="34"/>
+    </row>
+    <row r="106" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A106" s="58">
+        <v>12.5</v>
+      </c>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="34"/>
+    </row>
+    <row r="107" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A107" s="58">
+        <v>13.5</v>
+      </c>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="34"/>
+      <c r="K107" s="34"/>
+    </row>
+    <row r="108" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A108" s="58">
+        <v>15</v>
+      </c>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="34"/>
+    </row>
+    <row r="109" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A109" s="58">
+        <v>15</v>
+      </c>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
+      <c r="K109" s="34"/>
+    </row>
+    <row r="110" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A110" s="58">
+        <v>15</v>
+      </c>
+      <c r="B110" s="34"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34"/>
+      <c r="K110" s="34"/>
+    </row>
+    <row r="111" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A111" s="58">
+        <v>15</v>
+      </c>
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="34"/>
+    </row>
+    <row r="112" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A112" s="58">
+        <v>15</v>
+      </c>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="34"/>
+    </row>
+    <row r="113" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A113" s="58">
+        <v>15</v>
+      </c>
+      <c r="B113" s="34"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="34"/>
+    </row>
+    <row r="114" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A114" s="58">
+        <v>15</v>
+      </c>
+      <c r="B114" s="34"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="34"/>
+      <c r="K114" s="34"/>
+    </row>
+    <row r="115" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A115" s="58">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="34"/>
+    </row>
+    <row r="116" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A116" s="58">
+        <v>17</v>
+      </c>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
+    </row>
+    <row r="117" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A117" s="58">
+        <v>20</v>
+      </c>
+      <c r="B117" s="34"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="34"/>
+      <c r="K117" s="34"/>
+    </row>
+    <row r="118" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A118" s="58">
+        <v>20</v>
+      </c>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="34"/>
+      <c r="K118" s="34"/>
+    </row>
+    <row r="119" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A119" s="56">
+        <v>20</v>
+      </c>
+      <c r="B119" s="34"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="34"/>
+      <c r="K119" s="34"/>
+    </row>
+    <row r="120" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A120" s="58">
+        <v>20</v>
+      </c>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
+      <c r="J120" s="34"/>
+      <c r="K120" s="34"/>
+    </row>
+    <row r="121" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A121" s="58">
+        <v>20</v>
+      </c>
+      <c r="B121" s="34"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="34"/>
+      <c r="J121" s="34"/>
+      <c r="K121" s="34"/>
+    </row>
+    <row r="122" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A122" s="58">
+        <v>20</v>
+      </c>
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="34"/>
+    </row>
+    <row r="123" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A123" s="58">
+        <v>20</v>
+      </c>
+      <c r="B123" s="34"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="34"/>
+      <c r="K123" s="34"/>
+    </row>
+    <row r="124" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A124" s="58">
+        <v>20</v>
+      </c>
+      <c r="B124" s="34"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="34"/>
+      <c r="J124" s="34"/>
+      <c r="K124" s="34"/>
+    </row>
+    <row r="125" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A125" s="58">
+        <v>20</v>
+      </c>
+      <c r="B125" s="34"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="34"/>
+      <c r="K125" s="34"/>
+    </row>
+    <row r="126" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A126" s="58">
+        <v>20</v>
+      </c>
+      <c r="B126" s="34"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="34"/>
+    </row>
+    <row r="127" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A127" s="58">
+        <v>20</v>
+      </c>
+      <c r="B127" s="34"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="34"/>
+    </row>
+    <row r="128" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A128" s="58">
+        <v>20</v>
+      </c>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="34"/>
+      <c r="K128" s="34"/>
+    </row>
+    <row r="129" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A129" s="56">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="B129" s="34"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="34"/>
+      <c r="K129" s="34"/>
+    </row>
+    <row r="130" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A130" s="58">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="B130" s="34"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="34"/>
+      <c r="J130" s="34"/>
+      <c r="K130" s="34"/>
+    </row>
+    <row r="131" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A131" s="58">
+        <v>22.5</v>
+      </c>
+      <c r="B131" s="34"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="34"/>
+      <c r="J131" s="34"/>
+      <c r="K131" s="34"/>
+    </row>
+    <row r="132" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A132" s="58">
+        <v>23</v>
+      </c>
+      <c r="B132" s="34"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="34"/>
+      <c r="K132" s="34"/>
+    </row>
+    <row r="133" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A133" s="58">
+        <v>23</v>
+      </c>
+      <c r="B133" s="34"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="34"/>
+      <c r="K133" s="34"/>
+    </row>
+    <row r="134" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A134" s="58">
+        <v>25</v>
+      </c>
+      <c r="B134" s="34"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="34"/>
+      <c r="J134" s="34"/>
+      <c r="K134" s="34"/>
+    </row>
+    <row r="135" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A135" s="58">
+        <v>25</v>
+      </c>
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="34"/>
+      <c r="J135" s="34"/>
+      <c r="K135" s="34"/>
+    </row>
+    <row r="136" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A136" s="58">
+        <v>25</v>
+      </c>
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="34"/>
+      <c r="J136" s="34"/>
+      <c r="K136" s="34"/>
+    </row>
+    <row r="137" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A137" s="58">
+        <v>25</v>
+      </c>
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="34"/>
+      <c r="J137" s="34"/>
+      <c r="K137" s="34"/>
+    </row>
+    <row r="138" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A138" s="58">
+        <v>30</v>
+      </c>
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="34"/>
+      <c r="J138" s="34"/>
+      <c r="K138" s="34"/>
+    </row>
+    <row r="139" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A139" s="58">
+        <v>40</v>
+      </c>
+      <c r="B139" s="34"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="34"/>
+      <c r="K139" s="34"/>
+    </row>
+    <row r="140" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A140" s="58">
+        <v>40</v>
+      </c>
+      <c r="B140" s="34"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="34"/>
+      <c r="J140" s="34"/>
+      <c r="K140" s="34"/>
+    </row>
+    <row r="141" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A141" s="58">
+        <v>40</v>
+      </c>
+      <c r="B141" s="34"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="34"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="34"/>
+      <c r="J141" s="34"/>
+      <c r="K141" s="34"/>
+    </row>
+    <row r="142" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A142" s="58">
+        <v>40</v>
+      </c>
+      <c r="B142" s="34"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="34"/>
+      <c r="J142" s="34"/>
+      <c r="K142" s="34"/>
+    </row>
+    <row r="143" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A143" s="58">
+        <v>40</v>
+      </c>
+      <c r="B143" s="34"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="34"/>
+      <c r="I143" s="34"/>
+      <c r="J143" s="34"/>
+      <c r="K143" s="34"/>
+    </row>
+    <row r="144" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A144" s="58">
+        <v>40</v>
+      </c>
+      <c r="B144" s="34"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="34"/>
+      <c r="F144" s="34"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="34"/>
+      <c r="I144" s="34"/>
+      <c r="J144" s="34"/>
+      <c r="K144" s="34"/>
+    </row>
+    <row r="145" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A145" s="58">
+        <v>50</v>
+      </c>
+      <c r="B145" s="34"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="34"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="34"/>
+      <c r="J145" s="34"/>
+      <c r="K145" s="34"/>
+    </row>
+    <row r="146" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A146" s="58">
+        <v>50</v>
+      </c>
+      <c r="B146" s="34"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="34"/>
+      <c r="J146" s="34"/>
+      <c r="K146" s="34"/>
+    </row>
+    <row r="147" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A147" s="58">
+        <v>50</v>
+      </c>
+      <c r="B147" s="34"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="34"/>
+      <c r="I147" s="34"/>
+      <c r="J147" s="34"/>
+      <c r="K147" s="34"/>
+    </row>
+    <row r="148" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A148" s="58">
+        <v>50</v>
+      </c>
+      <c r="B148" s="34"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="34"/>
+      <c r="K148" s="34"/>
+    </row>
+    <row r="149" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A149" s="58">
+        <v>50</v>
+      </c>
+      <c r="B149" s="34"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="34"/>
+      <c r="F149" s="34"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="34"/>
+      <c r="I149" s="34"/>
+      <c r="J149" s="34"/>
+      <c r="K149" s="34"/>
+    </row>
+    <row r="150" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A150" s="58">
+        <v>50</v>
+      </c>
+      <c r="B150" s="34"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="34"/>
+      <c r="F150" s="34"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="34"/>
+      <c r="I150" s="34"/>
+      <c r="J150" s="34"/>
+      <c r="K150" s="34"/>
+    </row>
+    <row r="151" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A151" s="58">
+        <v>51</v>
+      </c>
+      <c r="B151" s="34"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="34"/>
+      <c r="F151" s="34"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="34"/>
+      <c r="I151" s="34"/>
+      <c r="J151" s="34"/>
+      <c r="K151" s="34"/>
+    </row>
+    <row r="152" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A152" s="58">
+        <v>54</v>
+      </c>
+      <c r="B152" s="34"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="34"/>
+      <c r="F152" s="34"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="34"/>
+      <c r="I152" s="34"/>
+      <c r="J152" s="34"/>
+      <c r="K152" s="34"/>
+    </row>
+    <row r="153" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A153" s="58">
+        <v>100</v>
+      </c>
+      <c r="B153" s="34"/>
+      <c r="C153" s="34"/>
+      <c r="D153" s="34"/>
+      <c r="E153" s="34"/>
+      <c r="F153" s="34"/>
+      <c r="G153" s="34"/>
+      <c r="H153" s="34"/>
+      <c r="I153" s="34"/>
+      <c r="J153" s="34"/>
+      <c r="K153" s="34"/>
+    </row>
+    <row r="154" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A154" s="58">
+        <v>100</v>
+      </c>
+      <c r="B154" s="34"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="34"/>
+      <c r="E154" s="34"/>
+      <c r="F154" s="34"/>
+      <c r="G154" s="34"/>
+      <c r="H154" s="34"/>
+      <c r="I154" s="34"/>
+      <c r="J154" s="34"/>
+      <c r="K154" s="34"/>
+    </row>
+    <row r="155" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A155" s="58">
+        <v>3000</v>
+      </c>
+      <c r="B155" s="34"/>
+      <c r="C155" s="34"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
+      <c r="G155" s="34"/>
+      <c r="H155" s="34"/>
+      <c r="I155" s="34"/>
+      <c r="J155" s="34"/>
+      <c r="K155" s="34"/>
+    </row>
+    <row r="156" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="C156" s="34"/>
+      <c r="D156" s="34"/>
+      <c r="E156" s="34"/>
+      <c r="F156" s="34"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="34"/>
+      <c r="I156" s="34"/>
+      <c r="J156" s="34"/>
+      <c r="K156" s="34"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A155">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="C1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -27047,7 +28042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -27448,7 +28443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N159"/>
   <sheetViews>
@@ -29239,7 +30234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
@@ -30017,7 +31012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:P74"/>
   <sheetViews>
@@ -31511,7 +32506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BF158"/>
   <sheetViews>
@@ -40348,7 +41343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -40430,205 +41425,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A2)</f>
-        <v>125</v>
-      </c>
-      <c r="C2" s="2">
-        <f>A2*B2</f>
-        <v>625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="B3" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A3)</f>
-        <v>84</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C5" si="0">A3*B3</f>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A4)</f>
-        <v>80</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="B5" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A5)</f>
-        <v>50</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A6)</f>
-        <v>48</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:C14" si="1">A6*B6</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="B7" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A7)</f>
-        <v>39</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="1"/>
-        <v>682.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A8)</f>
-        <v>39</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>22.5</v>
-      </c>
-      <c r="B9" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A9)</f>
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>562.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A10)</f>
-        <v>22</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="B11" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A11)</f>
-        <v>18</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A12)</f>
-        <v>18</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="1"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>32.5</v>
-      </c>
-      <c r="B13" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A13)</f>
-        <v>17</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="1"/>
-        <v>552.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1">
-        <f>COUNTIF('données + numéro d''équipe'!$A$2:$A$155,"&gt;="&amp;A14)</f>
-        <v>17</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="1"/>
-        <v>595</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/cours4_modelisation/donnees/cas-enchères.xlsx
+++ b/cours4_modelisation/donnees/cas-enchères.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Google Drive\HEC Montreal\Certificat Analytique\H2020_IntroAnalytique\MATH30650\cours4_modelisation\donnees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCA3679-21A1-46EE-8F97-266B8F142A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D64F44-EFB8-45C7-B88D-AB5F2048D65A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="22" r:id="rId1"/>
@@ -7625,6 +7625,213 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>135.89108742091599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>197.61463477997535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255.44341506870154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309.55768901528324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360.1303415498183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>407.3271641320876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>451.30712671587213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>492.22263971943539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530.21980635888201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>565.43866568864041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>598.01342668127791</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>628.07269366723904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>655.73968344386913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>681.13243435225388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>704.36400760994115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>725.54268117750985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>744.77213642719346</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>762.15163787235463</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>777.77620620750827</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>791.73678489981739</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>804.12040056450746</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>815.01031734846299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>824.486185538374</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>832.62418460216838</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>839.49716086511194</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>845.17476001483965</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>849.72355462273413</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>853.2071668624327</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>855.68638659985811</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>857.21928502299306</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>857.8613239736643</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>857.66546113784932</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>856.68225124546791</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>854.95994342526762</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>852.54457485523687</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>849.48006084398878</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>845.80828147374507</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>841.56916493089727</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>836.80076764563512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>831.53935135780353</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>825.8194572219677</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>819.67397706063809</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>813.13422187070148</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>806.22998768436821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>798.98961888229996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>791.44006905309823</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>783.60695948995613</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>775.51463541201008</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>767.18621999479967</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>758.64366629119831</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>749.90780712125797</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>740.99840300658809</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>731.93418822216108</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>722.73291503581186</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>713.41139620316414</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>703.98554578326321</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>694.47041833784454</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>684.88024657488495</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>675.22847749488471</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>665.52780709621595</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>655.79021369382554</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>646.0269899036075</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>636.24877334286214</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>626.46557609541935</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>616.68681298824049</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>606.92132872459945</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>597.1774239173044</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>587.46288006382747</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>577.78498350368147</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7670,7 +7877,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>16.129032258064516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7682,7 +7889,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>857.88892327242979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8692,7 +8899,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{1074BD75-9B5F-4896-9F96-475196EA1805}" type="CELLRANGE">
+                    <a:fld id="{D7B5B050-CEE0-45BC-A4BF-7F79DA5C886A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr algn="l">
                         <a:defRPr sz="1400">
@@ -9795,7 +10002,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{EB6065B2-3F6F-4973-B5F1-58B022A6AE4B}" type="CELLRANGE">
+                    <a:fld id="{12B15BF1-9161-4B0F-9BFC-7680A934A15D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -19423,7 +19630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617BED5-EED0-407D-851B-56D02A3C147E}">
   <dimension ref="A1:A155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -28447,8 +28654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30239,7 +30446,7 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30280,11 +30487,11 @@
       <c r="G3" s="96"/>
       <c r="H3" s="96"/>
       <c r="I3" s="108">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="116" t="str">
         <f>IF(C5="","",IF(Feuil2!BF32=0,"Bravo!","Valeur incorrecte"))</f>
-        <v/>
+        <v>Bravo!</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -30295,10 +30502,13 @@
         <f>144.583*EXP(-0.062*A4)</f>
         <v>135.89108742091599</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="98">
+        <f>A4*B4</f>
+        <v>135.89108742091599</v>
+      </c>
       <c r="D4" s="116" t="str">
         <f ca="1">IF(Feuil2!BD29&lt;=0.05,"Bravo!","Valeurs incorrectes")</f>
-        <v>Valeurs incorrectes</v>
+        <v>Bravo!</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -30309,7 +30519,10 @@
         <f t="shared" ref="B5:B68" si="0">144.583*EXP(-0.062*A5)</f>
         <v>131.74308985331689</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="98">
+        <f t="shared" ref="C5:C68" si="1">A5*B5</f>
+        <v>197.61463477997535</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="72">
@@ -30319,7 +30532,10 @@
         <f t="shared" si="0"/>
         <v>127.72170753435077</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="98">
+        <f t="shared" si="1"/>
+        <v>255.44341506870154</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="72">
@@ -30329,7 +30545,10 @@
         <f t="shared" si="0"/>
         <v>123.82307560611329</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="98">
+        <f t="shared" si="1"/>
+        <v>309.55768901528324</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="72">
@@ -30339,7 +30558,10 @@
         <f t="shared" si="0"/>
         <v>120.04344718327276</v>
       </c>
-      <c r="C8" s="98"/>
+      <c r="C8" s="98">
+        <f t="shared" si="1"/>
+        <v>360.1303415498183</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="72">
@@ -30349,7 +30571,10 @@
         <f t="shared" si="0"/>
         <v>116.37918975202503</v>
       </c>
-      <c r="C9" s="98"/>
+      <c r="C9" s="98">
+        <f t="shared" si="1"/>
+        <v>407.3271641320876</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="72">
@@ -30359,7 +30584,10 @@
         <f t="shared" si="0"/>
         <v>112.82678167896803</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="98">
+        <f t="shared" si="1"/>
+        <v>451.30712671587213</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="72">
@@ -30369,7 +30597,10 @@
         <f t="shared" si="0"/>
         <v>109.38280882654119</v>
       </c>
-      <c r="C11" s="98"/>
+      <c r="C11" s="98">
+        <f t="shared" si="1"/>
+        <v>492.22263971943539</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="72">
@@ -30379,7 +30610,10 @@
         <f t="shared" si="0"/>
         <v>106.04396127177641</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="98">
+        <f t="shared" si="1"/>
+        <v>530.21980635888201</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="72">
@@ -30389,7 +30623,10 @@
         <f t="shared" si="0"/>
         <v>102.80703012520735</v>
       </c>
-      <c r="C13" s="98"/>
+      <c r="C13" s="98">
+        <f t="shared" si="1"/>
+        <v>565.43866568864041</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="72">
@@ -30399,7 +30636,10 @@
         <f t="shared" si="0"/>
         <v>99.668904446879651</v>
       </c>
-      <c r="C14" s="98"/>
+      <c r="C14" s="98">
+        <f t="shared" si="1"/>
+        <v>598.01342668127791</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="72">
@@ -30409,7 +30649,10 @@
         <f t="shared" si="0"/>
         <v>96.626568256498317</v>
       </c>
-      <c r="C15" s="98"/>
+      <c r="C15" s="98">
+        <f t="shared" si="1"/>
+        <v>628.07269366723904</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="72">
@@ -30419,7 +30662,10 @@
         <f t="shared" si="0"/>
         <v>93.677097634838447</v>
       </c>
-      <c r="C16" s="98"/>
+      <c r="C16" s="98">
+        <f t="shared" si="1"/>
+        <v>655.73968344386913</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="72">
@@ -30429,7 +30675,10 @@
         <f t="shared" si="0"/>
         <v>90.817657913633852</v>
       </c>
-      <c r="C17" s="98"/>
+      <c r="C17" s="98">
+        <f t="shared" si="1"/>
+        <v>681.13243435225388</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="72">
@@ -30439,7 +30688,10 @@
         <f t="shared" si="0"/>
         <v>88.045500951242644</v>
       </c>
-      <c r="C18" s="98"/>
+      <c r="C18" s="98">
+        <f t="shared" si="1"/>
+        <v>704.36400760994115</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="72">
@@ -30449,7 +30701,10 @@
         <f t="shared" si="0"/>
         <v>85.357962491471753</v>
       </c>
-      <c r="C19" s="98"/>
+      <c r="C19" s="98">
+        <f t="shared" si="1"/>
+        <v>725.54268117750985</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="72">
@@ -30459,7 +30714,10 @@
         <f t="shared" si="0"/>
         <v>82.752459603021492</v>
       </c>
-      <c r="C20" s="98"/>
+      <c r="C20" s="98">
+        <f t="shared" si="1"/>
+        <v>744.77213642719346</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="72">
@@ -30469,7 +30727,10 @@
         <f t="shared" si="0"/>
         <v>80.226488197089964</v>
       </c>
-      <c r="C21" s="98"/>
+      <c r="C21" s="98">
+        <f t="shared" si="1"/>
+        <v>762.15163787235463</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="72">
@@ -30479,7 +30740,10 @@
         <f t="shared" si="0"/>
         <v>77.777620620750824</v>
       </c>
-      <c r="C22" s="98"/>
+      <c r="C22" s="98">
+        <f t="shared" si="1"/>
+        <v>777.77620620750827</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="72">
@@ -30489,7 +30753,10 @@
         <f t="shared" si="0"/>
         <v>75.403503323792137</v>
       </c>
-      <c r="C23" s="98"/>
+      <c r="C23" s="98">
+        <f t="shared" si="1"/>
+        <v>791.73678489981739</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="72">
@@ -30499,7 +30766,10 @@
         <f t="shared" si="0"/>
         <v>73.101854596773407</v>
       </c>
-      <c r="C24" s="98"/>
+      <c r="C24" s="98">
+        <f t="shared" si="1"/>
+        <v>804.12040056450746</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="72">
@@ -30509,7 +30779,10 @@
         <f t="shared" si="0"/>
         <v>70.870462378127215</v>
       </c>
-      <c r="C25" s="98"/>
+      <c r="C25" s="98">
+        <f t="shared" si="1"/>
+        <v>815.01031734846299</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="72">
@@ -30519,7 +30792,10 @@
         <f t="shared" si="0"/>
         <v>68.707182128197829</v>
       </c>
-      <c r="C26" s="98"/>
+      <c r="C26" s="98">
+        <f t="shared" si="1"/>
+        <v>824.486185538374</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="72">
@@ -30529,7 +30805,10 @@
         <f t="shared" si="0"/>
         <v>66.609934768173474</v>
       </c>
-      <c r="C27" s="98"/>
+      <c r="C27" s="98">
+        <f t="shared" si="1"/>
+        <v>832.62418460216838</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="72">
@@ -30539,7 +30818,10 @@
         <f t="shared" si="0"/>
         <v>64.576704681931687</v>
       </c>
-      <c r="C28" s="98"/>
+      <c r="C28" s="98">
+        <f t="shared" si="1"/>
+        <v>839.49716086511194</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="72">
@@ -30549,7 +30831,10 @@
         <f t="shared" si="0"/>
         <v>62.605537778877014</v>
       </c>
-      <c r="C29" s="98"/>
+      <c r="C29" s="98">
+        <f t="shared" si="1"/>
+        <v>845.17476001483965</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="72">
@@ -30559,7 +30844,10 @@
         <f t="shared" si="0"/>
         <v>60.694539615909584</v>
       </c>
-      <c r="C30" s="98"/>
+      <c r="C30" s="98">
+        <f t="shared" si="1"/>
+        <v>849.72355462273413</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="72">
@@ -30569,7 +30857,10 @@
         <f t="shared" si="0"/>
         <v>58.8418735767195</v>
       </c>
-      <c r="C31" s="98"/>
+      <c r="C31" s="98">
+        <f t="shared" si="1"/>
+        <v>853.2071668624327</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="72">
@@ -30579,7 +30870,10 @@
         <f t="shared" si="0"/>
         <v>57.045759106657208</v>
       </c>
-      <c r="C32" s="98"/>
+      <c r="C32" s="98">
+        <f t="shared" si="1"/>
+        <v>855.68638659985811</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="72">
@@ -30589,7 +30883,10 @@
         <f t="shared" si="0"/>
         <v>55.304470001483423</v>
       </c>
-      <c r="C33" s="98"/>
+      <c r="C33" s="98">
+        <f t="shared" si="1"/>
+        <v>857.21928502299306</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="72">
@@ -30599,7 +30896,10 @@
         <f t="shared" si="0"/>
         <v>53.616332748354019</v>
       </c>
-      <c r="C34" s="98"/>
+      <c r="C34" s="98">
+        <f t="shared" si="1"/>
+        <v>857.8613239736643</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="72">
@@ -30609,7 +30909,10 @@
         <f t="shared" si="0"/>
         <v>51.979724917445417</v>
       </c>
-      <c r="C35" s="98"/>
+      <c r="C35" s="98">
+        <f t="shared" si="1"/>
+        <v>857.66546113784932</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="72">
@@ -30619,7 +30922,10 @@
         <f t="shared" si="0"/>
         <v>50.393073602674583</v>
       </c>
-      <c r="C36" s="98"/>
+      <c r="C36" s="98">
+        <f t="shared" si="1"/>
+        <v>856.68225124546791</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="72">
@@ -30629,7 +30935,10 @@
         <f t="shared" si="0"/>
         <v>48.854853910015294</v>
       </c>
-      <c r="C37" s="98"/>
+      <c r="C37" s="98">
+        <f t="shared" si="1"/>
+        <v>854.95994342526762</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="72">
@@ -30639,7 +30948,10 @@
         <f t="shared" si="0"/>
         <v>47.363587491957603</v>
       </c>
-      <c r="C38" s="98"/>
+      <c r="C38" s="98">
+        <f t="shared" si="1"/>
+        <v>852.54457485523687</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="72">
@@ -30649,7 +30961,10 @@
         <f t="shared" si="0"/>
         <v>45.917841126702093</v>
       </c>
-      <c r="C39" s="98"/>
+      <c r="C39" s="98">
+        <f t="shared" si="1"/>
+        <v>849.48006084398878</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="72">
@@ -30659,7 +30974,10 @@
         <f t="shared" si="0"/>
         <v>44.516225340723423</v>
       </c>
-      <c r="C40" s="98"/>
+      <c r="C40" s="98">
+        <f t="shared" si="1"/>
+        <v>845.80828147374507</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="72">
@@ -30669,7 +30987,10 @@
         <f t="shared" si="0"/>
         <v>43.157393073379346</v>
       </c>
-      <c r="C41" s="98"/>
+      <c r="C41" s="98">
+        <f t="shared" si="1"/>
+        <v>841.56916493089727</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="72">
@@ -30679,7 +31000,10 @@
         <f t="shared" si="0"/>
         <v>41.840038382281755</v>
       </c>
-      <c r="C42" s="98"/>
+      <c r="C42" s="98">
+        <f t="shared" si="1"/>
+        <v>836.80076764563512</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="72">
@@ -30689,7 +31013,10 @@
         <f t="shared" si="0"/>
         <v>40.562895188185536</v>
       </c>
-      <c r="C43" s="98"/>
+      <c r="C43" s="98">
+        <f t="shared" si="1"/>
+        <v>831.53935135780353</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="72">
@@ -30699,7 +31026,10 @@
         <f t="shared" si="0"/>
         <v>39.32473605818894</v>
       </c>
-      <c r="C44" s="98"/>
+      <c r="C44" s="98">
+        <f t="shared" si="1"/>
+        <v>825.8194572219677</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="72">
@@ -30709,7 +31039,10 @@
         <f t="shared" si="0"/>
         <v>38.12437102607619</v>
       </c>
-      <c r="C45" s="98"/>
+      <c r="C45" s="98">
+        <f t="shared" si="1"/>
+        <v>819.67397706063809</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="72">
@@ -30719,7 +31052,10 @@
         <f t="shared" si="0"/>
         <v>36.96064644866825</v>
       </c>
-      <c r="C46" s="98"/>
+      <c r="C46" s="98">
+        <f t="shared" si="1"/>
+        <v>813.13422187070148</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="72">
@@ -30729,7 +31065,10 @@
         <f t="shared" si="0"/>
         <v>35.832443897083031</v>
       </c>
-      <c r="C47" s="98"/>
+      <c r="C47" s="98">
+        <f t="shared" si="1"/>
+        <v>806.22998768436821</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="72">
@@ -30739,7 +31078,10 @@
         <f t="shared" si="0"/>
         <v>34.73867908183913</v>
       </c>
-      <c r="C48" s="98"/>
+      <c r="C48" s="98">
+        <f t="shared" si="1"/>
+        <v>798.98961888229996</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="72">
@@ -30749,7 +31091,10 @@
         <f t="shared" si="0"/>
         <v>33.678300810770139</v>
       </c>
-      <c r="C49" s="98"/>
+      <c r="C49" s="98">
+        <f t="shared" si="1"/>
+        <v>791.44006905309823</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="72">
@@ -30759,7 +31104,10 @@
         <f t="shared" si="0"/>
         <v>32.65028997874817</v>
       </c>
-      <c r="C50" s="98"/>
+      <c r="C50" s="98">
+        <f t="shared" si="1"/>
+        <v>783.60695948995613</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="72">
@@ -30769,7 +31117,10 @@
         <f t="shared" si="0"/>
         <v>31.65365858824531</v>
       </c>
-      <c r="C51" s="98"/>
+      <c r="C51" s="98">
+        <f t="shared" si="1"/>
+        <v>775.51463541201008</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="72">
@@ -30779,7 +31130,10 @@
         <f t="shared" si="0"/>
         <v>30.687448799791987</v>
       </c>
-      <c r="C52" s="98"/>
+      <c r="C52" s="98">
+        <f t="shared" si="1"/>
+        <v>767.18621999479967</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="72">
@@ -30789,7 +31143,10 @@
         <f t="shared" si="0"/>
         <v>29.750732011419544</v>
       </c>
-      <c r="C53" s="98"/>
+      <c r="C53" s="98">
+        <f t="shared" si="1"/>
+        <v>758.64366629119831</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="72">
@@ -30799,7 +31156,10 @@
         <f t="shared" si="0"/>
         <v>28.84260796620223</v>
       </c>
-      <c r="C54" s="98"/>
+      <c r="C54" s="98">
+        <f t="shared" si="1"/>
+        <v>749.90780712125797</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="72">
@@ -30809,7 +31169,10 @@
         <f t="shared" si="0"/>
         <v>27.96220388704106</v>
       </c>
-      <c r="C55" s="98"/>
+      <c r="C55" s="98">
+        <f t="shared" si="1"/>
+        <v>740.99840300658809</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="72">
@@ -30819,7 +31182,10 @@
         <f t="shared" si="0"/>
         <v>27.108673637857816</v>
       </c>
-      <c r="C56" s="98"/>
+      <c r="C56" s="98">
+        <f t="shared" si="1"/>
+        <v>731.93418822216108</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="72">
@@ -30829,7 +31195,10 @@
         <f t="shared" si="0"/>
         <v>26.28119691039316</v>
       </c>
-      <c r="C57" s="98"/>
+      <c r="C57" s="98">
+        <f t="shared" si="1"/>
+        <v>722.73291503581186</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="72">
@@ -30839,7 +31208,10 @@
         <f t="shared" si="0"/>
         <v>25.47897843582729</v>
       </c>
-      <c r="C58" s="98"/>
+      <c r="C58" s="98">
+        <f t="shared" si="1"/>
+        <v>713.41139620316414</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="72">
@@ -30849,7 +31221,10 @@
         <f t="shared" si="0"/>
         <v>24.701247220465376</v>
       </c>
-      <c r="C59" s="98"/>
+      <c r="C59" s="98">
+        <f t="shared" si="1"/>
+        <v>703.98554578326321</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="72">
@@ -30859,7 +31234,10 @@
         <f t="shared" si="0"/>
         <v>23.947255804753258</v>
       </c>
-      <c r="C60" s="98"/>
+      <c r="C60" s="98">
+        <f t="shared" si="1"/>
+        <v>694.47041833784454</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="72">
@@ -30869,7 +31247,10 @@
         <f t="shared" si="0"/>
         <v>23.216279544911355</v>
       </c>
-      <c r="C61" s="98"/>
+      <c r="C61" s="98">
+        <f t="shared" si="1"/>
+        <v>684.88024657488495</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="72">
@@ -30879,7 +31260,10 @@
         <f t="shared" si="0"/>
         <v>22.507615916496157</v>
       </c>
-      <c r="C62" s="98"/>
+      <c r="C62" s="98">
+        <f t="shared" si="1"/>
+        <v>675.22847749488471</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="72">
@@ -30889,7 +31273,10 @@
         <f t="shared" si="0"/>
         <v>21.820583839220195</v>
       </c>
-      <c r="C63" s="98"/>
+      <c r="C63" s="98">
+        <f t="shared" si="1"/>
+        <v>665.52780709621595</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="72">
@@ -30899,7 +31286,10 @@
         <f t="shared" si="0"/>
         <v>21.154523022381468</v>
       </c>
-      <c r="C64" s="98"/>
+      <c r="C64" s="98">
+        <f t="shared" si="1"/>
+        <v>655.79021369382554</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="72">
@@ -30909,7 +31299,10 @@
         <f t="shared" si="0"/>
         <v>20.508793330273253</v>
       </c>
-      <c r="C65" s="98"/>
+      <c r="C65" s="98">
+        <f t="shared" si="1"/>
+        <v>646.0269899036075</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="72">
@@ -30919,7 +31312,10 @@
         <f t="shared" si="0"/>
         <v>19.882774166964442</v>
       </c>
-      <c r="C66" s="98"/>
+      <c r="C66" s="98">
+        <f t="shared" si="1"/>
+        <v>636.24877334286214</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="72">
@@ -30929,7 +31325,10 @@
         <f t="shared" si="0"/>
         <v>19.275863879859056</v>
       </c>
-      <c r="C67" s="98"/>
+      <c r="C67" s="98">
+        <f t="shared" si="1"/>
+        <v>626.46557609541935</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="72">
@@ -30939,47 +31338,62 @@
         <f t="shared" si="0"/>
         <v>18.687479181461832</v>
       </c>
-      <c r="C68" s="98"/>
+      <c r="C68" s="98">
+        <f t="shared" si="1"/>
+        <v>616.68681298824049</v>
+      </c>
     </row>
     <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="72">
         <v>33.5</v>
       </c>
       <c r="B69" s="99">
-        <f t="shared" ref="B69:B72" si="1">144.583*EXP(-0.062*A69)</f>
+        <f t="shared" ref="B69:B72" si="2">144.583*EXP(-0.062*A69)</f>
         <v>18.117054588794012</v>
       </c>
-      <c r="C69" s="98"/>
+      <c r="C69" s="98">
+        <f t="shared" ref="C69:C72" si="3">A69*B69</f>
+        <v>606.92132872459945</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="72">
         <v>34</v>
       </c>
       <c r="B70" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.564041879920719</v>
       </c>
-      <c r="C70" s="98"/>
+      <c r="C70" s="98">
+        <f t="shared" si="3"/>
+        <v>597.1774239173044</v>
+      </c>
     </row>
     <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="72">
         <v>34.5</v>
       </c>
       <c r="B71" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.027909567067464</v>
       </c>
-      <c r="C71" s="98"/>
+      <c r="C71" s="98">
+        <f t="shared" si="3"/>
+        <v>587.46288006382747</v>
+      </c>
     </row>
     <row r="72" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="73">
         <v>35</v>
       </c>
       <c r="B72" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.508142385819472</v>
       </c>
-      <c r="C72" s="98"/>
+      <c r="C72" s="98">
+        <f t="shared" si="3"/>
+        <v>577.78498350368147</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31017,7 +31431,7 @@
   <dimension ref="A2:P74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32551,13 +32965,13 @@
         <f ca="1">OFFSET(W5,0,X1,1,1)</f>
         <v>144.583</v>
       </c>
-      <c r="AA2" t="e">
+      <c r="AA2">
         <f ca="1">IF('g)'!C5="",NA(),OFFSET(W6,0,X1,1,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB2" t="e">
-        <f>IF('g)'!C5="",NA(),Z2*EXP(-Z1*AA2)*AA2)</f>
-        <v>#N/A</v>
+        <v>16.129032258064516</v>
+      </c>
+      <c r="AB2">
+        <f ca="1">IF('g)'!C5="",NA(),Z2*EXP(-Z1*AA2)*AA2)</f>
+        <v>857.88892327242979</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.3">
@@ -32661,7 +33075,7 @@
       </c>
       <c r="AY4">
         <f>IF(COUNT('g)'!C4:C5)=2,MAX('g)'!C4:C72),999)</f>
-        <v>999</v>
+        <v>857.8613239736643</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
@@ -36387,18 +36801,18 @@
       </c>
       <c r="BC29">
         <f ca="1">ABS(BA29-'g)'!C4)</f>
-        <v>135.89108742091599</v>
+        <v>0</v>
       </c>
       <c r="BD29">
         <f ca="1">MAX(BB29:BC97)</f>
-        <v>857.8613239736643</v>
+        <v>0</v>
       </c>
       <c r="BE29" t="s">
         <v>105</v>
       </c>
       <c r="BF29" s="111">
         <f>MAX('g)'!C4:C72)</f>
-        <v>0</v>
+        <v>857.8613239736643</v>
       </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.3">
@@ -36564,14 +36978,14 @@
       </c>
       <c r="BC30">
         <f ca="1">ABS(BA30-'g)'!C5)</f>
-        <v>197.61463477997535</v>
+        <v>0</v>
       </c>
       <c r="BE30" t="s">
         <v>106</v>
       </c>
-      <c r="BF30" t="e">
+      <c r="BF30">
         <f>MATCH(BF29,'g)'!C4:C72,0)</f>
-        <v>#N/A</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.3">
@@ -36737,14 +37151,14 @@
       </c>
       <c r="BC31">
         <f ca="1">ABS(BA31-'g)'!C6)</f>
-        <v>255.44341506870154</v>
+        <v>0</v>
       </c>
       <c r="BE31" t="s">
         <v>41</v>
       </c>
-      <c r="BF31" t="e">
+      <c r="BF31">
         <f>INDEX('g)'!A4:A72,BF30)</f>
-        <v>#N/A</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.3">
@@ -36910,11 +37324,11 @@
       </c>
       <c r="BC32">
         <f ca="1">ABS(BA32-'g)'!C7)</f>
-        <v>309.55768901528324</v>
-      </c>
-      <c r="BF32" t="e">
+        <v>0</v>
+      </c>
+      <c r="BF32">
         <f>ABS(BF31-'g)'!I3)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.3">
@@ -37080,7 +37494,7 @@
       </c>
       <c r="BC33">
         <f ca="1">ABS(BA33-'g)'!C8)</f>
-        <v>360.1303415498183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.3">
@@ -37243,7 +37657,7 @@
       </c>
       <c r="BC34">
         <f ca="1">ABS(BA34-'g)'!C9)</f>
-        <v>407.3271641320876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:55" x14ac:dyDescent="0.3">
@@ -37406,7 +37820,7 @@
       </c>
       <c r="BC35">
         <f ca="1">ABS(BA35-'g)'!C10)</f>
-        <v>451.30712671587213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:55" x14ac:dyDescent="0.3">
@@ -37569,7 +37983,7 @@
       </c>
       <c r="BC36">
         <f ca="1">ABS(BA36-'g)'!C11)</f>
-        <v>492.22263971943539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:55" x14ac:dyDescent="0.3">
@@ -37732,7 +38146,7 @@
       </c>
       <c r="BC37">
         <f ca="1">ABS(BA37-'g)'!C12)</f>
-        <v>530.21980635888201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.3">
@@ -37895,7 +38309,7 @@
       </c>
       <c r="BC38">
         <f ca="1">ABS(BA38-'g)'!C13)</f>
-        <v>565.43866568864041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.3">
@@ -38058,7 +38472,7 @@
       </c>
       <c r="BC39">
         <f ca="1">ABS(BA39-'g)'!C14)</f>
-        <v>598.01342668127791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.3">
@@ -38221,7 +38635,7 @@
       </c>
       <c r="BC40">
         <f ca="1">ABS(BA40-'g)'!C15)</f>
-        <v>628.07269366723904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.3">
@@ -38384,7 +38798,7 @@
       </c>
       <c r="BC41">
         <f ca="1">ABS(BA41-'g)'!C16)</f>
-        <v>655.73968344386913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.3">
@@ -38547,7 +38961,7 @@
       </c>
       <c r="BC42">
         <f ca="1">ABS(BA42-'g)'!C17)</f>
-        <v>681.13243435225388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:55" x14ac:dyDescent="0.3">
@@ -38710,7 +39124,7 @@
       </c>
       <c r="BC43">
         <f ca="1">ABS(BA43-'g)'!C18)</f>
-        <v>704.36400760994115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.3">
@@ -38873,7 +39287,7 @@
       </c>
       <c r="BC44">
         <f ca="1">ABS(BA44-'g)'!C19)</f>
-        <v>725.54268117750985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.3">
@@ -39033,7 +39447,7 @@
       </c>
       <c r="BC45">
         <f ca="1">ABS(BA45-'g)'!C20)</f>
-        <v>744.77213642719346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.3">
@@ -39193,7 +39607,7 @@
       </c>
       <c r="BC46">
         <f ca="1">ABS(BA46-'g)'!C21)</f>
-        <v>762.15163787235463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.3">
@@ -39353,7 +39767,7 @@
       </c>
       <c r="BC47">
         <f ca="1">ABS(BA47-'g)'!C22)</f>
-        <v>777.77620620750827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.3">
@@ -39513,7 +39927,7 @@
       </c>
       <c r="BC48">
         <f ca="1">ABS(BA48-'g)'!C23)</f>
-        <v>791.73678489981739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:55" x14ac:dyDescent="0.3">
@@ -39673,7 +40087,7 @@
       </c>
       <c r="BC49">
         <f ca="1">ABS(BA49-'g)'!C24)</f>
-        <v>804.12040056450746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:55" x14ac:dyDescent="0.3">
@@ -39704,7 +40118,7 @@
       </c>
       <c r="BC50">
         <f ca="1">ABS(BA50-'g)'!C25)</f>
-        <v>815.01031734846299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:55" x14ac:dyDescent="0.3">
@@ -39735,7 +40149,7 @@
       </c>
       <c r="BC51">
         <f ca="1">ABS(BA51-'g)'!C26)</f>
-        <v>824.486185538374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:55" x14ac:dyDescent="0.3">
@@ -39766,7 +40180,7 @@
       </c>
       <c r="BC52">
         <f ca="1">ABS(BA52-'g)'!C27)</f>
-        <v>832.62418460216838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:55" x14ac:dyDescent="0.3">
@@ -39797,7 +40211,7 @@
       </c>
       <c r="BC53">
         <f ca="1">ABS(BA53-'g)'!C28)</f>
-        <v>839.49716086511194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.3">
@@ -39828,7 +40242,7 @@
       </c>
       <c r="BC54">
         <f ca="1">ABS(BA54-'g)'!C29)</f>
-        <v>845.17476001483965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:55" x14ac:dyDescent="0.3">
@@ -39859,7 +40273,7 @@
       </c>
       <c r="BC55">
         <f ca="1">ABS(BA55-'g)'!C30)</f>
-        <v>849.72355462273413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:55" x14ac:dyDescent="0.3">
@@ -39890,7 +40304,7 @@
       </c>
       <c r="BC56">
         <f ca="1">ABS(BA56-'g)'!C31)</f>
-        <v>853.2071668624327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:55" x14ac:dyDescent="0.3">
@@ -39921,7 +40335,7 @@
       </c>
       <c r="BC57">
         <f ca="1">ABS(BA57-'g)'!C32)</f>
-        <v>855.68638659985811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:55" x14ac:dyDescent="0.3">
@@ -39952,7 +40366,7 @@
       </c>
       <c r="BC58">
         <f ca="1">ABS(BA58-'g)'!C33)</f>
-        <v>857.21928502299306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:55" x14ac:dyDescent="0.3">
@@ -39983,7 +40397,7 @@
       </c>
       <c r="BC59">
         <f ca="1">ABS(BA59-'g)'!C34)</f>
-        <v>857.8613239736643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:55" x14ac:dyDescent="0.3">
@@ -40014,7 +40428,7 @@
       </c>
       <c r="BC60">
         <f ca="1">ABS(BA60-'g)'!C35)</f>
-        <v>857.66546113784932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:55" x14ac:dyDescent="0.3">
@@ -40045,7 +40459,7 @@
       </c>
       <c r="BC61">
         <f ca="1">ABS(BA61-'g)'!C36)</f>
-        <v>856.68225124546791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:55" x14ac:dyDescent="0.3">
@@ -40076,7 +40490,7 @@
       </c>
       <c r="BC62">
         <f ca="1">ABS(BA62-'g)'!C37)</f>
-        <v>854.95994342526762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:55" x14ac:dyDescent="0.3">
@@ -40107,7 +40521,7 @@
       </c>
       <c r="BC63">
         <f ca="1">ABS(BA63-'g)'!C38)</f>
-        <v>852.54457485523687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:55" x14ac:dyDescent="0.3">
@@ -40138,7 +40552,7 @@
       </c>
       <c r="BC64">
         <f ca="1">ABS(BA64-'g)'!C39)</f>
-        <v>849.48006084398878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:55" x14ac:dyDescent="0.3">
@@ -40169,7 +40583,7 @@
       </c>
       <c r="BC65">
         <f ca="1">ABS(BA65-'g)'!C40)</f>
-        <v>845.80828147374507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:55" x14ac:dyDescent="0.3">
@@ -40200,7 +40614,7 @@
       </c>
       <c r="BC66">
         <f ca="1">ABS(BA66-'g)'!C41)</f>
-        <v>841.56916493089727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:55" x14ac:dyDescent="0.3">
@@ -40231,7 +40645,7 @@
       </c>
       <c r="BC67">
         <f ca="1">ABS(BA67-'g)'!C42)</f>
-        <v>836.80076764563512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:55" x14ac:dyDescent="0.3">
@@ -40262,7 +40676,7 @@
       </c>
       <c r="BC68">
         <f ca="1">ABS(BA68-'g)'!C43)</f>
-        <v>831.53935135780353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:55" x14ac:dyDescent="0.3">
@@ -40293,7 +40707,7 @@
       </c>
       <c r="BC69">
         <f ca="1">ABS(BA69-'g)'!C44)</f>
-        <v>825.8194572219677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:55" x14ac:dyDescent="0.3">
@@ -40324,7 +40738,7 @@
       </c>
       <c r="BC70">
         <f ca="1">ABS(BA70-'g)'!C45)</f>
-        <v>819.67397706063809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:55" x14ac:dyDescent="0.3">
@@ -40355,7 +40769,7 @@
       </c>
       <c r="BC71">
         <f ca="1">ABS(BA71-'g)'!C46)</f>
-        <v>813.13422187070148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:55" x14ac:dyDescent="0.3">
@@ -40386,7 +40800,7 @@
       </c>
       <c r="BC72">
         <f ca="1">ABS(BA72-'g)'!C47)</f>
-        <v>806.22998768436821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:55" x14ac:dyDescent="0.3">
@@ -40417,7 +40831,7 @@
       </c>
       <c r="BC73">
         <f ca="1">ABS(BA73-'g)'!C48)</f>
-        <v>798.98961888229996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:55" x14ac:dyDescent="0.3">
@@ -40448,7 +40862,7 @@
       </c>
       <c r="BC74">
         <f ca="1">ABS(BA74-'g)'!C49)</f>
-        <v>791.44006905309823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:55" x14ac:dyDescent="0.3">
@@ -40479,7 +40893,7 @@
       </c>
       <c r="BC75">
         <f ca="1">ABS(BA75-'g)'!C50)</f>
-        <v>783.60695948995613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:55" x14ac:dyDescent="0.3">
@@ -40510,7 +40924,7 @@
       </c>
       <c r="BC76">
         <f ca="1">ABS(BA76-'g)'!C51)</f>
-        <v>775.51463541201008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:55" x14ac:dyDescent="0.3">
@@ -40541,7 +40955,7 @@
       </c>
       <c r="BC77">
         <f ca="1">ABS(BA77-'g)'!C52)</f>
-        <v>767.18621999479967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:55" x14ac:dyDescent="0.3">
@@ -40565,7 +40979,7 @@
       </c>
       <c r="BC78">
         <f ca="1">ABS(BA78-'g)'!C53)</f>
-        <v>758.64366629119831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:55" x14ac:dyDescent="0.3">
@@ -40589,7 +41003,7 @@
       </c>
       <c r="BC79">
         <f ca="1">ABS(BA79-'g)'!C54)</f>
-        <v>749.90780712125797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:55" x14ac:dyDescent="0.3">
@@ -40613,7 +41027,7 @@
       </c>
       <c r="BC80">
         <f ca="1">ABS(BA80-'g)'!C55)</f>
-        <v>740.99840300658809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:55" x14ac:dyDescent="0.3">
@@ -40637,7 +41051,7 @@
       </c>
       <c r="BC81">
         <f ca="1">ABS(BA81-'g)'!C56)</f>
-        <v>731.93418822216108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:55" x14ac:dyDescent="0.3">
@@ -40661,7 +41075,7 @@
       </c>
       <c r="BC82">
         <f ca="1">ABS(BA82-'g)'!C57)</f>
-        <v>722.73291503581186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:55" x14ac:dyDescent="0.3">
@@ -40685,7 +41099,7 @@
       </c>
       <c r="BC83">
         <f ca="1">ABS(BA83-'g)'!C58)</f>
-        <v>713.41139620316414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:55" x14ac:dyDescent="0.3">
@@ -40709,7 +41123,7 @@
       </c>
       <c r="BC84">
         <f ca="1">ABS(BA84-'g)'!C59)</f>
-        <v>703.98554578326321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:55" x14ac:dyDescent="0.3">
@@ -40733,7 +41147,7 @@
       </c>
       <c r="BC85">
         <f ca="1">ABS(BA85-'g)'!C60)</f>
-        <v>694.47041833784454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:55" x14ac:dyDescent="0.3">
@@ -40757,7 +41171,7 @@
       </c>
       <c r="BC86">
         <f ca="1">ABS(BA86-'g)'!C61)</f>
-        <v>684.88024657488495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:55" x14ac:dyDescent="0.3">
@@ -40781,7 +41195,7 @@
       </c>
       <c r="BC87">
         <f ca="1">ABS(BA87-'g)'!C62)</f>
-        <v>675.22847749488471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:55" x14ac:dyDescent="0.3">
@@ -40805,7 +41219,7 @@
       </c>
       <c r="BC88">
         <f ca="1">ABS(BA88-'g)'!C63)</f>
-        <v>665.52780709621595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:55" x14ac:dyDescent="0.3">
@@ -40829,7 +41243,7 @@
       </c>
       <c r="BC89">
         <f ca="1">ABS(BA89-'g)'!C64)</f>
-        <v>655.79021369382554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:55" x14ac:dyDescent="0.3">
@@ -40853,7 +41267,7 @@
       </c>
       <c r="BC90">
         <f ca="1">ABS(BA90-'g)'!C65)</f>
-        <v>646.0269899036075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:55" x14ac:dyDescent="0.3">
@@ -40877,7 +41291,7 @@
       </c>
       <c r="BC91">
         <f ca="1">ABS(BA91-'g)'!C66)</f>
-        <v>636.24877334286214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:55" x14ac:dyDescent="0.3">
@@ -40901,7 +41315,7 @@
       </c>
       <c r="BC92">
         <f ca="1">ABS(BA92-'g)'!C67)</f>
-        <v>626.46557609541935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:55" x14ac:dyDescent="0.3">
@@ -40925,7 +41339,7 @@
       </c>
       <c r="BC93">
         <f ca="1">ABS(BA93-'g)'!C68)</f>
-        <v>616.68681298824049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:55" x14ac:dyDescent="0.3">
@@ -40949,7 +41363,7 @@
       </c>
       <c r="BC94">
         <f ca="1">ABS(BA94-'g)'!C69)</f>
-        <v>606.92132872459945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:55" x14ac:dyDescent="0.3">
@@ -40973,7 +41387,7 @@
       </c>
       <c r="BC95">
         <f ca="1">ABS(BA95-'g)'!C70)</f>
-        <v>597.1774239173044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:55" x14ac:dyDescent="0.3">
@@ -40997,7 +41411,7 @@
       </c>
       <c r="BC96">
         <f ca="1">ABS(BA96-'g)'!C71)</f>
-        <v>587.46288006382747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:55" x14ac:dyDescent="0.3">
@@ -41021,7 +41435,7 @@
       </c>
       <c r="BC97">
         <f ca="1">ABS(BA97-'g)'!C72)</f>
-        <v>577.78498350368147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:55" x14ac:dyDescent="0.3">
